--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H2">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I2">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J2">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N2">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q2">
-        <v>0.1470181436883333</v>
+        <v>0.2380197834242223</v>
       </c>
       <c r="R2">
-        <v>1.323163293195</v>
+        <v>2.142178050818</v>
       </c>
       <c r="S2">
-        <v>6.7720374223282E-05</v>
+        <v>0.0001017143266621248</v>
       </c>
       <c r="T2">
-        <v>6.7720374223282E-05</v>
+        <v>0.0001017143266621248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H3">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I3">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J3">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q3">
-        <v>21.56137455118667</v>
+        <v>15.16359254291733</v>
       </c>
       <c r="R3">
-        <v>194.05237096068</v>
+        <v>136.472332886256</v>
       </c>
       <c r="S3">
-        <v>0.009931728946803321</v>
+        <v>0.006479942898413266</v>
       </c>
       <c r="T3">
-        <v>0.009931728946803321</v>
+        <v>0.006479942898413265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H4">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I4">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J4">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N4">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q4">
-        <v>13.86138599048778</v>
+        <v>11.05065228876778</v>
       </c>
       <c r="R4">
-        <v>124.75247391439</v>
+        <v>99.45587059891001</v>
       </c>
       <c r="S4">
-        <v>0.006384914290029098</v>
+        <v>0.004722337112314576</v>
       </c>
       <c r="T4">
-        <v>0.006384914290029098</v>
+        <v>0.004722337112314576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H5">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I5">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J5">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N5">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O5">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P5">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q5">
-        <v>0.015513476325</v>
+        <v>0.005691738111333334</v>
       </c>
       <c r="R5">
-        <v>0.139621286925</v>
+        <v>0.051225643002</v>
       </c>
       <c r="S5">
-        <v>7.145909993668315E-06</v>
+        <v>2.432282313691528E-06</v>
       </c>
       <c r="T5">
-        <v>7.145909993668316E-06</v>
+        <v>2.432282313691528E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H6">
         <v>160.621296</v>
       </c>
       <c r="I6">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J6">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N6">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q6">
-        <v>8.059923092848003</v>
+        <v>18.55441886278934</v>
       </c>
       <c r="R6">
-        <v>72.53930783563202</v>
+        <v>166.989769765104</v>
       </c>
       <c r="S6">
-        <v>0.003712609847772503</v>
+        <v>0.007928963694047235</v>
       </c>
       <c r="T6">
-        <v>0.003712609847772503</v>
+        <v>0.007928963694047234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H7">
         <v>160.621296</v>
       </c>
       <c r="I7">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J7">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>22.077736</v>
       </c>
       <c r="N7">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q7">
         <v>1182.051523021952</v>
@@ -883,10 +883,10 @@
         <v>10638.46370719757</v>
       </c>
       <c r="S7">
-        <v>0.5444836227829434</v>
+        <v>0.5051326953349435</v>
       </c>
       <c r="T7">
-        <v>0.5444836227829434</v>
+        <v>0.5051326953349435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H8">
         <v>160.621296</v>
       </c>
       <c r="I8">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J8">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N8">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q8">
-        <v>759.9178049782296</v>
+        <v>861.4344081953868</v>
       </c>
       <c r="R8">
-        <v>6839.260244804066</v>
+        <v>7752.90967375848</v>
       </c>
       <c r="S8">
-        <v>0.3500378717959864</v>
+        <v>0.3681215886034747</v>
       </c>
       <c r="T8">
-        <v>0.3500378717959864</v>
+        <v>0.3681215886034747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H9">
         <v>160.621296</v>
       </c>
       <c r="I9">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J9">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N9">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O9">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P9">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q9">
-        <v>0.8504897623200002</v>
+        <v>0.4436895599840001</v>
       </c>
       <c r="R9">
-        <v>7.654407860880002</v>
+        <v>3.993206039856</v>
       </c>
       <c r="S9">
-        <v>0.0003917576669957035</v>
+        <v>0.0001896043437715116</v>
       </c>
       <c r="T9">
-        <v>0.0003917576669957035</v>
+        <v>0.0001896043437715116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H10">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I10">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J10">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N10">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q10">
-        <v>0.7581322679613334</v>
+        <v>2.244503770894667</v>
       </c>
       <c r="R10">
-        <v>6.823190411652001</v>
+        <v>20.200533938052</v>
       </c>
       <c r="S10">
-        <v>0.0003492154070855759</v>
+        <v>0.0009591563628148316</v>
       </c>
       <c r="T10">
-        <v>0.0003492154070855759</v>
+        <v>0.0009591563628148316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H11">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I11">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J11">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>22.077736</v>
       </c>
       <c r="N11">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q11">
-        <v>111.1860983873387</v>
+        <v>142.991225994976</v>
       </c>
       <c r="R11">
-        <v>1000.674885486048</v>
+        <v>1286.921033954784</v>
       </c>
       <c r="S11">
-        <v>0.0512152037994664</v>
+        <v>0.06110524117547191</v>
       </c>
       <c r="T11">
-        <v>0.0512152037994664</v>
+        <v>0.06110524117547191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H12">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I12">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J12">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N12">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q12">
-        <v>71.47936801823379</v>
+        <v>104.2065931501933</v>
       </c>
       <c r="R12">
-        <v>643.3143121641041</v>
+        <v>937.85933835174</v>
       </c>
       <c r="S12">
-        <v>0.03292525282933915</v>
+        <v>0.04453118687674283</v>
       </c>
       <c r="T12">
-        <v>0.03292525282933915</v>
+        <v>0.04453118687674284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H13">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I13">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J13">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N13">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O13">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P13">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q13">
-        <v>0.07999874502</v>
+        <v>0.05367254549200001</v>
       </c>
       <c r="R13">
-        <v>0.71998870518</v>
+        <v>0.483052909428</v>
       </c>
       <c r="S13">
-        <v>3.684949907701242E-05</v>
+        <v>2.293618936385216E-05</v>
       </c>
       <c r="T13">
-        <v>3.684949907701242E-05</v>
+        <v>2.293618936385216E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.027175</v>
+        <v>0.04265633333333333</v>
       </c>
       <c r="H14">
-        <v>0.081525</v>
+        <v>0.127969</v>
       </c>
       <c r="I14">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657373</v>
       </c>
       <c r="J14">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657372</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N14">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O14">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P14">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q14">
-        <v>0.004090897325</v>
+        <v>0.01478253809788889</v>
       </c>
       <c r="R14">
-        <v>0.03681807592500001</v>
+        <v>0.133042842881</v>
       </c>
       <c r="S14">
-        <v>1.884373525660341E-06</v>
+        <v>6.317104768993587E-06</v>
       </c>
       <c r="T14">
-        <v>1.884373525660341E-06</v>
+        <v>6.317104768993586E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.027175</v>
+        <v>0.04265633333333333</v>
       </c>
       <c r="H15">
-        <v>0.081525</v>
+        <v>0.127969</v>
       </c>
       <c r="I15">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657373</v>
       </c>
       <c r="J15">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>22.077736</v>
       </c>
       <c r="N15">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O15">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P15">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q15">
-        <v>0.5999624758000001</v>
+        <v>0.9417552660613332</v>
       </c>
       <c r="R15">
-        <v>5.3996622822</v>
+        <v>8.475797394551998</v>
       </c>
       <c r="S15">
-        <v>0.0002763582940295753</v>
+        <v>0.0004024455504911216</v>
       </c>
       <c r="T15">
-        <v>0.0002763582940295753</v>
+        <v>0.0004024455504911216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.027175</v>
+        <v>0.04265633333333333</v>
       </c>
       <c r="H16">
-        <v>0.081525</v>
+        <v>0.127969</v>
       </c>
       <c r="I16">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657373</v>
       </c>
       <c r="J16">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657372</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N16">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O16">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P16">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q16">
-        <v>0.3857041413166667</v>
+        <v>0.6863155915661111</v>
       </c>
       <c r="R16">
-        <v>3.47133727185</v>
+        <v>6.176840324095</v>
       </c>
       <c r="S16">
-        <v>0.0001776653420737421</v>
+        <v>0.0002932870842481439</v>
       </c>
       <c r="T16">
-        <v>0.0001776653420737421</v>
+        <v>0.0002932870842481439</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.027175</v>
+        <v>0.04265633333333333</v>
       </c>
       <c r="H17">
-        <v>0.081525</v>
+        <v>0.127969</v>
       </c>
       <c r="I17">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657373</v>
       </c>
       <c r="J17">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657372</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N17">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O17">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P17">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q17">
-        <v>0.000431674875</v>
+        <v>0.0003534930343333333</v>
       </c>
       <c r="R17">
-        <v>0.003885073875</v>
+        <v>0.003181437309</v>
       </c>
       <c r="S17">
-        <v>1.988406556115991E-07</v>
+        <v>1.510601574781004E-07</v>
       </c>
       <c r="T17">
-        <v>1.988406556115991E-07</v>
+        <v>1.510601574781004E-07</v>
       </c>
     </row>
   </sheetData>
